--- a/techniqo/data_new_ticker/MASFIN.xlsx
+++ b/techniqo/data_new_ticker/MASFIN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G719"/>
+  <dimension ref="A1:G721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25551,6 +25551,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>858</v>
+      </c>
+      <c r="C720" t="n">
+        <v>865.95</v>
+      </c>
+      <c r="D720" t="n">
+        <v>833</v>
+      </c>
+      <c r="E720" t="n">
+        <v>850.25</v>
+      </c>
+      <c r="F720" t="n">
+        <v>25653</v>
+      </c>
+      <c r="G720" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>863</v>
+      </c>
+      <c r="C721" t="n">
+        <v>868</v>
+      </c>
+      <c r="D721" t="n">
+        <v>822.3</v>
+      </c>
+      <c r="E721" t="n">
+        <v>836.3</v>
+      </c>
+      <c r="F721" t="n">
+        <v>65020</v>
+      </c>
+      <c r="G721" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/MASFIN.xlsx
+++ b/techniqo/data_new_ticker/MASFIN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G721"/>
+  <dimension ref="A1:G723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25601,6 +25601,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>840</v>
+      </c>
+      <c r="C722" t="n">
+        <v>869</v>
+      </c>
+      <c r="D722" t="n">
+        <v>827.75</v>
+      </c>
+      <c r="E722" t="n">
+        <v>858.35</v>
+      </c>
+      <c r="F722" t="n">
+        <v>44718</v>
+      </c>
+      <c r="G722" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>866.8</v>
+      </c>
+      <c r="C723" t="n">
+        <v>879</v>
+      </c>
+      <c r="D723" t="n">
+        <v>850.3</v>
+      </c>
+      <c r="E723" t="n">
+        <v>860.6</v>
+      </c>
+      <c r="F723" t="n">
+        <v>26121</v>
+      </c>
+      <c r="G723" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
